--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
-  <si>
-    <t>AppID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>MaketUrl</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -30,10 +26,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Gp-on-off</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -42,18 +34,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Item_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -63,6 +43,38 @@
   </si>
   <si>
     <t>on-off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppID_v1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1001.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1002.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1003.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1004.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1005.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1006.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -84,6 +96,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -151,12 +170,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,9 +192,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -514,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -525,247 +552,207 @@
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="27.75" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1004</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1005</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1002</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>1003</v>
       </c>
-      <c r="E2" s="3">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>1004</v>
       </c>
-      <c r="F2" s="3">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>1005</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>1004</v>
-      </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="C7" r:id="rId10"/>
+    <hyperlink ref="C8" r:id="rId11"/>
+    <hyperlink ref="C9" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>MaketUrl</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -34,18 +34,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Item_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ad_Unit_appids</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>on-off</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -75,6 +63,45 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1006.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit_Unit_appids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1001.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1001.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1002.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1003.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1004.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1005.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1006.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>More_Unit_appids</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +571,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -559,7 +586,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -571,15 +598,15 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3">
         <v>1002</v>
@@ -591,27 +618,27 @@
         <v>1004</v>
       </c>
       <c r="E2" s="3">
-        <v>1005</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>1006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>1003</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>1004</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -625,13 +652,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
@@ -645,13 +672,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
@@ -665,13 +692,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
@@ -685,13 +712,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>3</v>
@@ -705,13 +732,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>3</v>
@@ -725,13 +752,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>3</v>
@@ -752,6 +779,11 @@
     <hyperlink ref="C7" r:id="rId10"/>
     <hyperlink ref="C8" r:id="rId11"/>
     <hyperlink ref="C9" r:id="rId12"/>
+    <hyperlink ref="E5" r:id="rId13"/>
+    <hyperlink ref="E6" r:id="rId14"/>
+    <hyperlink ref="E7" r:id="rId15"/>
+    <hyperlink ref="E8" r:id="rId16"/>
+    <hyperlink ref="E9" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>MaketUrl</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,10 +77,6 @@
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1001.png</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1001.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1002.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -102,6 +98,14 @@
   </si>
   <si>
     <t>More_Unit_appids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1002.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1001.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +575,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -626,7 +630,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3">
         <v>1002</v>
@@ -655,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -675,10 +679,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
@@ -698,7 +702,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
@@ -718,7 +722,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>3</v>
@@ -738,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>3</v>
@@ -758,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>3</v>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>MaketUrl</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1001.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ads_Lock_0-4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -610,27 +614,27 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3">
-        <v>1002</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>1003</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>1004</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3">
         <v>1002</v>
@@ -642,47 +646,47 @@
         <v>1004</v>
       </c>
       <c r="E3" s="3">
-        <v>1005</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1004</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1005</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
@@ -690,19 +694,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
@@ -710,19 +714,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>3</v>
@@ -730,19 +734,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>3</v>
@@ -750,44 +754,64 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>1006</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="C4" r:id="rId7"/>
-    <hyperlink ref="C5" r:id="rId8"/>
-    <hyperlink ref="C6" r:id="rId9"/>
-    <hyperlink ref="C7" r:id="rId10"/>
-    <hyperlink ref="C8" r:id="rId11"/>
-    <hyperlink ref="C9" r:id="rId12"/>
-    <hyperlink ref="E5" r:id="rId13"/>
-    <hyperlink ref="E6" r:id="rId14"/>
-    <hyperlink ref="E7" r:id="rId15"/>
-    <hyperlink ref="E8" r:id="rId16"/>
-    <hyperlink ref="E9" r:id="rId17"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId4"/>
+    <hyperlink ref="D9" r:id="rId5"/>
+    <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="C6" r:id="rId8"/>
+    <hyperlink ref="C7" r:id="rId9"/>
+    <hyperlink ref="C8" r:id="rId10"/>
+    <hyperlink ref="C9" r:id="rId11"/>
+    <hyperlink ref="C10" r:id="rId12"/>
+    <hyperlink ref="E6" r:id="rId13"/>
+    <hyperlink ref="E7" r:id="rId14"/>
+    <hyperlink ref="E8" r:id="rId15"/>
+    <hyperlink ref="E9" r:id="rId16"/>
+    <hyperlink ref="E10" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -70,10 +70,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Exit_Unit_appids</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1001.png</t>
   </si>
   <si>
@@ -110,6 +106,10 @@
   </si>
   <si>
     <t>Ads_Lock_0-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full_Unit_appids</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +579,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -614,7 +614,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3">
         <v>1002</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3">
         <v>1002</v>
@@ -683,10 +683,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
@@ -703,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
@@ -726,7 +726,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>3</v>
@@ -746,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>3</v>
@@ -766,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>3</v>
@@ -786,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>3</v>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -16,100 +16,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>MaketUrl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PicUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Gp-on-off</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AppID_v1.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1002.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1003.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1004.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1005.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1006.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1002.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1003.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1004.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1005.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1006.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>More_Unit_appids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ads_Lock_0-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full_Unit_appids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1001.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1002.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1003.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1004.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1005.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1006.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1001.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1002.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1003.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1004.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1005.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1006.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>More_Unit_appids</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1002.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1001.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ads_Lock_0-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Full_Unit_appids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1001.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1002.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1003.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1004.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1005.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1006.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nativeAdUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PicFullUrl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +592,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -587,34 +600,34 @@
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="27.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="85.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -634,7 +647,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
         <v>1002</v>
@@ -654,7 +667,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3">
         <v>1002</v>
@@ -680,16 +693,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -700,15 +713,15 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -720,16 +733,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -740,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -760,16 +773,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -780,38 +793,46 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
-    <hyperlink ref="D9" r:id="rId5"/>
-    <hyperlink ref="D10" r:id="rId6"/>
-    <hyperlink ref="C5" r:id="rId7"/>
-    <hyperlink ref="C6" r:id="rId8"/>
-    <hyperlink ref="C7" r:id="rId9"/>
-    <hyperlink ref="C8" r:id="rId10"/>
-    <hyperlink ref="C9" r:id="rId11"/>
-    <hyperlink ref="C10" r:id="rId12"/>
-    <hyperlink ref="E6" r:id="rId13"/>
-    <hyperlink ref="E7" r:id="rId14"/>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F7" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="F9" r:id="rId4"/>
+    <hyperlink ref="F10" r:id="rId5"/>
+    <hyperlink ref="F5" r:id="rId6"/>
+    <hyperlink ref="C6" r:id="rId7"/>
+    <hyperlink ref="C7" r:id="rId8"/>
+    <hyperlink ref="C8" r:id="rId9"/>
+    <hyperlink ref="C9" r:id="rId10"/>
+    <hyperlink ref="C10" r:id="rId11"/>
+    <hyperlink ref="C5" r:id="rId12"/>
+    <hyperlink ref="D5" r:id="rId13"/>
+    <hyperlink ref="E6" r:id="rId14"/>
     <hyperlink ref="E8" r:id="rId15"/>
     <hyperlink ref="E9" r:id="rId16"/>
     <hyperlink ref="E10" r:id="rId17"/>
+    <hyperlink ref="E5" r:id="rId18"/>
+    <hyperlink ref="E7" r:id="rId19"/>
+    <hyperlink ref="D6:D10" r:id="rId20" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1001.png"/>
+    <hyperlink ref="D6" r:id="rId21"/>
+    <hyperlink ref="D7" r:id="rId22"/>
+    <hyperlink ref="D8" r:id="rId23"/>
+    <hyperlink ref="D9" r:id="rId24"/>
+    <hyperlink ref="D10" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
-  <si>
-    <t>MaketUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Gp-on-off</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,6 +119,17 @@
   </si>
   <si>
     <t>PicFullUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaketUrl-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -592,14 +599,14 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="83.5" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="85.625" customWidth="1"/>
@@ -607,27 +614,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -647,7 +654,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
         <v>1002</v>
@@ -667,7 +674,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>1002</v>
@@ -693,16 +700,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -713,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -733,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -753,16 +760,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -773,16 +780,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -793,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -814,25 +821,20 @@
     <hyperlink ref="F9" r:id="rId4"/>
     <hyperlink ref="F10" r:id="rId5"/>
     <hyperlink ref="F5" r:id="rId6"/>
-    <hyperlink ref="C6" r:id="rId7"/>
-    <hyperlink ref="C7" r:id="rId8"/>
-    <hyperlink ref="C8" r:id="rId9"/>
-    <hyperlink ref="C9" r:id="rId10"/>
-    <hyperlink ref="C10" r:id="rId11"/>
-    <hyperlink ref="C5" r:id="rId12"/>
-    <hyperlink ref="D5" r:id="rId13"/>
-    <hyperlink ref="E6" r:id="rId14"/>
-    <hyperlink ref="E8" r:id="rId15"/>
-    <hyperlink ref="E9" r:id="rId16"/>
-    <hyperlink ref="E10" r:id="rId17"/>
-    <hyperlink ref="E5" r:id="rId18"/>
-    <hyperlink ref="E7" r:id="rId19"/>
-    <hyperlink ref="D6:D10" r:id="rId20" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1001.png"/>
-    <hyperlink ref="D6" r:id="rId21"/>
-    <hyperlink ref="D7" r:id="rId22"/>
-    <hyperlink ref="D8" r:id="rId23"/>
-    <hyperlink ref="D9" r:id="rId24"/>
-    <hyperlink ref="D10" r:id="rId25"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="E6" r:id="rId8"/>
+    <hyperlink ref="E8" r:id="rId9"/>
+    <hyperlink ref="E9" r:id="rId10"/>
+    <hyperlink ref="E10" r:id="rId11"/>
+    <hyperlink ref="E5" r:id="rId12"/>
+    <hyperlink ref="E7" r:id="rId13"/>
+    <hyperlink ref="D6:D10" r:id="rId14" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1001.png"/>
+    <hyperlink ref="D6" r:id="rId15"/>
+    <hyperlink ref="D7" r:id="rId16"/>
+    <hyperlink ref="D8" r:id="rId17"/>
+    <hyperlink ref="D9" r:id="rId18"/>
+    <hyperlink ref="D10" r:id="rId19"/>
+    <hyperlink ref="C5" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Gp-on-off</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AppID_v1.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1002.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -74,10 +70,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ads_Lock_0-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Full_Unit_appids</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -130,6 +122,10 @@
   </si>
   <si>
     <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppID_v1_adslock1-5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -599,12 +595,12 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="83.5" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
@@ -614,27 +610,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -654,7 +650,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3">
         <v>1002</v>
@@ -674,7 +670,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>1002</v>
@@ -700,16 +696,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -720,16 +716,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -740,16 +736,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -760,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -780,16 +776,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -800,16 +796,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -662,7 +662,7 @@
         <v>1004</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -662,7 +662,7 @@
         <v>1004</v>
       </c>
       <c r="E3" s="3">
-        <v>1005</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -662,7 +662,7 @@
         <v>1004</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Gp-on-off</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -118,14 +118,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>AppID_V1_adslock1-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.findthedifferences.policestory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.solitairequeen.solitaire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.puzzleblock.woodfinger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.jewelbalst.kungfurabbitcrush</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppID_v1_adslock1-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.twofortwo.dotsconnectlegend</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -594,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -610,7 +627,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -665,7 +682,7 @@
         <v>1005</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -685,7 +702,7 @@
         <v>1005</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -716,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>17</v>
@@ -736,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>18</v>
@@ -756,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>19</v>
@@ -776,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>20</v>
@@ -796,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>21</v>
@@ -831,6 +848,11 @@
     <hyperlink ref="D9" r:id="rId18"/>
     <hyperlink ref="D10" r:id="rId19"/>
     <hyperlink ref="C5" r:id="rId20"/>
+    <hyperlink ref="C6" r:id="rId21"/>
+    <hyperlink ref="C7" r:id="rId22"/>
+    <hyperlink ref="C8" r:id="rId23"/>
+    <hyperlink ref="C10" r:id="rId24"/>
+    <hyperlink ref="C9" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -126,14 +126,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://play.google.com/store/apps/details?id=com.solitairequeen.solitaire</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.puzzleblock.woodfinger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://play.google.com/store/apps/details?id=com.jewelbalst.kungfurabbitcrush</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -143,6 +135,14 @@
   </si>
   <si>
     <t>https://play.google.com/store/apps/details?id=com.twofortwo.dotsconnectlegend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.solitaire.solitairespider</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.woodpuzzle.woodfinger</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>17</v>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>18</v>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>19</v>
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>20</v>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>21</v>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,156 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="9540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>AppID_V1_adslock1-5</t>
+  </si>
   <si>
     <t>Gp-on-off</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaketUrl-</t>
+  </si>
+  <si>
+    <t>PicFullUrl</t>
+  </si>
+  <si>
+    <t>IconUrl</t>
+  </si>
+  <si>
+    <t>nativeAdUrl</t>
+  </si>
+  <si>
+    <t>Full_Unit_appids</t>
+  </si>
+  <si>
+    <t>More_Unit_appids</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.findthedifferences.policestory</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1001.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1001.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1001.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.solitaire.solitairespider</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1002.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1002.png</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1002.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.woodpuzzle.woodfinger</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1003.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1003.png</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1003.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.jewelbalst.kungfurabbitcrush</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1004.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1004.png</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1004.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1005.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1005.png</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1005.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.twofortwo.dotsconnectlegend</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1006.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1006.png</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1006.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1002.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1003.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1004.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1005.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1006.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>More_Unit_appids</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Full_Unit_appids</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1001.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1001.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1001.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1002.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1003.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1004.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1005.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1006.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nativeAdUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PicFullUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaketUrl-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppID_V1_adslock1-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.findthedifferences.policestory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.jewelbalst.kungfurabbitcrush</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.twofortwo.dotsconnectlegend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.solitaire.solitairespider</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.woodpuzzle.woodfinger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.hiddencitygame.finddifferences.fd</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2000.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2000.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2000.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.puzzlegame.sudoku.free</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2001.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2001.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2001.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -159,11 +157,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -174,8 +167,158 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,13 +327,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,8 +337,206 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -237,110 +572,338 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
-      <color rgb="FFA9D08E"/>
-      <color rgb="FF000000"/>
-      <color rgb="FFBDD7EE"/>
+      <color rgb="00A9D08E"/>
+      <color rgb="00000000"/>
+      <color rgb="00BDD7EE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -359,7 +922,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -603,289 +1166,340 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="83.5" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="86.75" customWidth="1"/>
+    <col min="4" max="4" width="79.125" customWidth="1"/>
+    <col min="5" max="5" width="75.25" customWidth="1"/>
     <col min="6" max="6" width="85.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1003</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1004</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1005</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1006</v>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1003</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1004</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1005</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1006</v>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>1001</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>1002</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>1003</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>1004</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>1005</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>1006</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>5</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1"/>
-    <hyperlink ref="F7" r:id="rId2"/>
-    <hyperlink ref="F8" r:id="rId3"/>
-    <hyperlink ref="F9" r:id="rId4"/>
-    <hyperlink ref="F10" r:id="rId5"/>
-    <hyperlink ref="F5" r:id="rId6"/>
-    <hyperlink ref="D5" r:id="rId7"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="E8" r:id="rId9"/>
-    <hyperlink ref="E9" r:id="rId10"/>
-    <hyperlink ref="E10" r:id="rId11"/>
-    <hyperlink ref="E5" r:id="rId12"/>
-    <hyperlink ref="E7" r:id="rId13"/>
-    <hyperlink ref="D6:D10" r:id="rId14" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1001.png"/>
-    <hyperlink ref="D6" r:id="rId15"/>
-    <hyperlink ref="D7" r:id="rId16"/>
-    <hyperlink ref="D8" r:id="rId17"/>
-    <hyperlink ref="D9" r:id="rId18"/>
-    <hyperlink ref="D10" r:id="rId19"/>
-    <hyperlink ref="C5" r:id="rId20"/>
-    <hyperlink ref="C6" r:id="rId21"/>
-    <hyperlink ref="C7" r:id="rId22"/>
-    <hyperlink ref="C8" r:id="rId23"/>
-    <hyperlink ref="C10" r:id="rId24"/>
-    <hyperlink ref="C9" r:id="rId25"/>
+    <hyperlink ref="F6" r:id="rId1" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1002.png"/>
+    <hyperlink ref="F7" r:id="rId2" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1003.png"/>
+    <hyperlink ref="F8" r:id="rId3" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1004.png"/>
+    <hyperlink ref="F9" r:id="rId4" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1005.png"/>
+    <hyperlink ref="F10" r:id="rId5" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1006.png"/>
+    <hyperlink ref="F5" r:id="rId6" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1001.png"/>
+    <hyperlink ref="D5" r:id="rId7" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1001.png"/>
+    <hyperlink ref="E6" r:id="rId8" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1002.png"/>
+    <hyperlink ref="E8" r:id="rId9" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1004.png"/>
+    <hyperlink ref="E9" r:id="rId10" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1005.png"/>
+    <hyperlink ref="E10" r:id="rId11" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1006.png"/>
+    <hyperlink ref="E5" r:id="rId12" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1001.png"/>
+    <hyperlink ref="E7" r:id="rId13" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1003.png"/>
+    <hyperlink ref="D6:D10" r:id="rId7" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1002.png"/>
+    <hyperlink ref="D6" r:id="rId14" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1002.png"/>
+    <hyperlink ref="D7" r:id="rId15" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1003.png"/>
+    <hyperlink ref="D8" r:id="rId16" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1004.png"/>
+    <hyperlink ref="D9" r:id="rId17" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1005.png"/>
+    <hyperlink ref="D10" r:id="rId18" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1006.png"/>
+    <hyperlink ref="C5" r:id="rId19" display="https://play.google.com/store/apps/details?id=com.findthedifferences.policestory"/>
+    <hyperlink ref="C6" r:id="rId20" display="https://play.google.com/store/apps/details?id=com.solitaire.solitairespider"/>
+    <hyperlink ref="C7" r:id="rId21" display="https://play.google.com/store/apps/details?id=com.woodpuzzle.woodfinger"/>
+    <hyperlink ref="C8" r:id="rId22" display="https://play.google.com/store/apps/details?id=com.jewelbalst.kungfurabbitcrush"/>
+    <hyperlink ref="C10" r:id="rId23" display="https://play.google.com/store/apps/details?id=com.twofortwo.dotsconnectlegend"/>
+    <hyperlink ref="C9" r:id="rId24" display="https://play.google.com/store/apps/details?id=com.snakevsblock.snakevsvirus"/>
+    <hyperlink ref="F11" r:id="rId25" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2000.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2000.png"/>
+    <hyperlink ref="F12" r:id="rId26" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2001.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2001.png"/>
+    <hyperlink ref="E11" r:id="rId27" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2000.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2000.png"/>
+    <hyperlink ref="E12" r:id="rId28" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2001.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2001.png"/>
+    <hyperlink ref="D11:D12" r:id="rId7" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2000.png"/>
+    <hyperlink ref="D11" r:id="rId29" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2000.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2000.png"/>
+    <hyperlink ref="D12" r:id="rId30" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2001.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2001.png"/>
+    <hyperlink ref="C12" r:id="rId31" display="https://play.google.com/store/apps/details?id=com.puzzlegame.sudoku.free"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>AppID_V1_adslock1-5</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2001.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.assassin.killer.hunter</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2002.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2002.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2002.png</t>
   </si>
 </sst>
 </file>
@@ -318,7 +330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,12 +364,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,10 +684,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,16 +696,16 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,10 +718,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,28 +742,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -766,22 +772,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,34 +790,40 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,10 +1178,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1426,6 +1432,26 @@
       </c>
       <c r="F12" s="6" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1463,6 +1489,10 @@
     <hyperlink ref="D11" r:id="rId29" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2000.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2000.png"/>
     <hyperlink ref="D12" r:id="rId30" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2001.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2001.png"/>
     <hyperlink ref="C12" r:id="rId31" display="https://play.google.com/store/apps/details?id=com.puzzlegame.sudoku.free"/>
+    <hyperlink ref="F13" r:id="rId32" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2002.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2002.png"/>
+    <hyperlink ref="E13" r:id="rId33" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2002.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2002.png"/>
+    <hyperlink ref="D13" r:id="rId34" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2002.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2002.png"/>
+    <hyperlink ref="C13" r:id="rId35" display="https://play.google.com/store/apps/details?id=com.assassin.killer.hunter" tooltip="https://play.google.com/store/apps/details?id=com.assassin.killer.hunter"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>AppID_V1_adslock1-5</t>
   </si>
@@ -148,6 +148,42 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2002.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.combineinc.legend.sudoku.game</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2003.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2003.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2003.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.puzzlegames.puzzlebrickslegend</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2004.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2004.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2004.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.resestudio.blockpuzzle.jewellegend</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2005.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2005.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2005.png</t>
   </si>
 </sst>
 </file>
@@ -155,9 +191,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -202,6 +238,110 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -210,58 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -271,64 +359,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -363,6 +399,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,31 +417,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,18 +555,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,103 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,26 +630,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,35 +698,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,107 +717,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,40 +832,34 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -928,7 +964,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1178,13 +1214,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
@@ -1441,17 +1477,77 @@
       <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1493,6 +1589,15 @@
     <hyperlink ref="E13" r:id="rId33" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2002.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2002.png"/>
     <hyperlink ref="D13" r:id="rId34" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2002.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2002.png"/>
     <hyperlink ref="C13" r:id="rId35" display="https://play.google.com/store/apps/details?id=com.assassin.killer.hunter" tooltip="https://play.google.com/store/apps/details?id=com.assassin.killer.hunter"/>
+    <hyperlink ref="D14" r:id="rId36" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2003.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2003.png"/>
+    <hyperlink ref="D15" r:id="rId37" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2004.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2004.png"/>
+    <hyperlink ref="D16" r:id="rId38" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2005.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2005.png"/>
+    <hyperlink ref="E14" r:id="rId39" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2003.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2003.png"/>
+    <hyperlink ref="E15" r:id="rId40" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2004.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2004.png"/>
+    <hyperlink ref="E16" r:id="rId41" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2005.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2005.png"/>
+    <hyperlink ref="F14" r:id="rId42" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2003.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2003.png"/>
+    <hyperlink ref="F15" r:id="rId43" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2004.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2004.png"/>
+    <hyperlink ref="F16" r:id="rId44" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2005.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2005.png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1509,7 +1614,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1526,7 +1631,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9444"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>AppID_V1_adslock1-5</t>
   </si>
@@ -184,6 +184,66 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2005.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.resestudio.princessblast</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2006.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2006.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2006.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.puzzleblockgame.woodpuzzle.woodenpuzzles</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2007.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2007.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2007.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2008.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2008.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2008.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2009.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2009.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2009.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2010.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2010.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2010.png</t>
   </si>
 </sst>
 </file>
@@ -191,9 +251,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -238,6 +298,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -246,34 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -282,17 +336,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,47 +398,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,30 +459,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,6 +501,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,127 +573,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,44 +690,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,17 +740,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,113 +777,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,34 +886,40 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,7 +1024,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1214,17 +1274,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="86.75" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="92.375" customWidth="1"/>
     <col min="4" max="4" width="79.125" customWidth="1"/>
     <col min="5" max="5" width="75.25" customWidth="1"/>
     <col min="6" max="6" width="85.625" customWidth="1"/>
@@ -1548,6 +1608,106 @@
       </c>
       <c r="F16" s="6" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1598,6 +1758,26 @@
     <hyperlink ref="F14" r:id="rId42" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2003.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2003.png"/>
     <hyperlink ref="F15" r:id="rId43" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2004.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2004.png"/>
     <hyperlink ref="F16" r:id="rId44" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2005.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2005.png"/>
+    <hyperlink ref="D17" r:id="rId45" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2006.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2006.png"/>
+    <hyperlink ref="E17" r:id="rId46" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2006.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2006.png"/>
+    <hyperlink ref="F17" r:id="rId47" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2006.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2006.png"/>
+    <hyperlink ref="C17" r:id="rId48" display="https://play.google.com/store/apps/details?id=com.resestudio.princessblast"/>
+    <hyperlink ref="D18" r:id="rId49" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2007.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2007.png"/>
+    <hyperlink ref="E18" r:id="rId50" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2007.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2007.png"/>
+    <hyperlink ref="F18" r:id="rId51" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2007.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2007.png"/>
+    <hyperlink ref="C18" r:id="rId52" display="https://play.google.com/store/apps/details?id=com.puzzleblockgame.woodpuzzle.woodenpuzzles" tooltip="https://play.google.com/store/apps/details?id=com.puzzleblockgame.woodpuzzle.woodenpuzzles"/>
+    <hyperlink ref="D19" r:id="rId53" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2008.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2008.png"/>
+    <hyperlink ref="E19" r:id="rId54" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2008.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2008.png"/>
+    <hyperlink ref="F19" r:id="rId55" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2008.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2008.png"/>
+    <hyperlink ref="C19" r:id="rId56" display="https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame" tooltip="https://play.google.com/store/apps/details?id=com.jungleblastcube.jewelscrush.puzzlegame"/>
+    <hyperlink ref="D20" r:id="rId57" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2009.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2009.png"/>
+    <hyperlink ref="E20" r:id="rId58" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2009.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2009.png"/>
+    <hyperlink ref="F20" r:id="rId59" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2009.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2009.png"/>
+    <hyperlink ref="C20" r:id="rId60" display="https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat" tooltip="https://play.google.com/store/apps/details?id=com.fishinggames.catfishing.sillycat"/>
+    <hyperlink ref="D21" r:id="rId61" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2010.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2010.png"/>
+    <hyperlink ref="E21" r:id="rId62" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2010.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2010.png"/>
+    <hyperlink ref="F21" r:id="rId63" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2010.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2010.png"/>
+    <hyperlink ref="C21" r:id="rId64" display="https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish" tooltip="https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1614,7 +1794,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1631,7 +1811,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>AppID_V1_adslock1-5</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2010.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2011.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2011.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2011.png</t>
   </si>
 </sst>
 </file>
@@ -404,20 +416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -425,6 +423,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -465,36 +477,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -507,48 +519,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -567,6 +579,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -579,7 +627,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,48 +646,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,10 +792,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,7 +804,7 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,7 +813,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,10 +826,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -838,7 +850,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -847,19 +859,19 @@
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -868,36 +880,36 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -910,10 +922,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1274,10 +1286,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1708,6 +1720,26 @@
       </c>
       <c r="F21" s="7" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5">
+        <v>2011</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1778,6 +1810,10 @@
     <hyperlink ref="E21" r:id="rId62" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2010.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2010.png"/>
     <hyperlink ref="F21" r:id="rId63" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2010.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2010.png"/>
     <hyperlink ref="C21" r:id="rId64" display="https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish" tooltip="https://play.google.com/store/apps/details?id=com.fishinghuntgame.oceanfish"/>
+    <hyperlink ref="D22" r:id="rId65" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2011.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2011.png"/>
+    <hyperlink ref="E22" r:id="rId66" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2011.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2011.png"/>
+    <hyperlink ref="F22" r:id="rId67" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2011.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2011.png"/>
+    <hyperlink ref="C22" r:id="rId68" display="https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest" tooltip="https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>AppID_V1_adslock1-5</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2011.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2012.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2012.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2012.png</t>
   </si>
 </sst>
 </file>
@@ -263,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -296,7 +308,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +396,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -318,74 +435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,49 +443,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -471,181 +483,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,30 +699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -722,41 +710,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,158 +737,217 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -949,6 +961,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,10 +1301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1489,7 +1504,7 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1503,243 +1518,263 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>2000</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>2001</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>2002</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>2003</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>2004</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>2005</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>2006</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>2007</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>2008</v>
       </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>2009</v>
       </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>2010</v>
       </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>2011</v>
       </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1814,6 +1849,10 @@
     <hyperlink ref="E22" r:id="rId66" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2011.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2011.png"/>
     <hyperlink ref="F22" r:id="rId67" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2011.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2011.png"/>
     <hyperlink ref="C22" r:id="rId68" display="https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest" tooltip="https://play.google.com/store/apps/details?id=com.bubbleshooter.superharvest"/>
+    <hyperlink ref="D23" r:id="rId69" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2012.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_2012.png"/>
+    <hyperlink ref="E23" r:id="rId70" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2012.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2012.png"/>
+    <hyperlink ref="F23" r:id="rId71" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2012.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2012.png"/>
+    <hyperlink ref="C23" r:id="rId72" display="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend" tooltip="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>AppID_V1_adslock1-5</t>
   </si>
@@ -268,6 +268,30 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2012.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.find.differences.detective.worldtour</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1007.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1007.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1007.png</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1008.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1008.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1008.png</t>
   </si>
 </sst>
 </file>
@@ -275,9 +299,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -314,6 +338,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -322,22 +396,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,102 +461,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -483,19 +507,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,157 +675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,21 +724,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -731,33 +740,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,11 +790,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,149 +825,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,10 +1325,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1467,7 +1491,7 @@
       <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1487,7 +1511,7 @@
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1775,6 +1799,46 @@
       </c>
       <c r="F23" s="8" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3">
+        <v>1007</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3">
+        <v>1008</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1853,6 +1917,15 @@
     <hyperlink ref="E23" r:id="rId70" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2012.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_2012.png"/>
     <hyperlink ref="F23" r:id="rId71" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2012.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_2012.png"/>
     <hyperlink ref="C23" r:id="rId72" display="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend" tooltip="https://play.google.com/store/apps/details?id=classic.bubble.shooter.game.bubbletower.legend"/>
+    <hyperlink ref="C24" r:id="rId73" display="https://play.google.com/store/apps/details?id=com.find.differences.detective.worldtour"/>
+    <hyperlink ref="C25" r:id="rId74" display="https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree" tooltip="https://play.google.com/store/apps/details?id=com.bubblepop.bubbleshootertree"/>
+    <hyperlink ref="F24" r:id="rId75" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1007.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1007.png"/>
+    <hyperlink ref="F25" r:id="rId76" display="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1008.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/native_ad_1008.png"/>
+    <hyperlink ref="E24" r:id="rId77" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1007.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1007.png"/>
+    <hyperlink ref="E25" r:id="rId78" display="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1008.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/icon_1008.png"/>
+    <hyperlink ref="D24:D25" r:id="rId7" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1007.png"/>
+    <hyperlink ref="D24" r:id="rId79" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1007.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1007.png"/>
+    <hyperlink ref="D25" r:id="rId80" display="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1008.png" tooltip="https://raw.githubusercontent.com/freeket/htgames/master/config/ad_full_1008.png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
